--- a/数据/page1 - 蛋鸡存栏数据_PZQ.xlsx
+++ b/数据/page1 - 蛋鸡存栏数据_PZQ.xlsx
@@ -5,7 +5,7 @@
   <workbookPr showInkAnnotation="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liyang/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liyang/MyFiles/code/BigDataDisplay/数据/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -2694,7 +2694,7 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="25" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2830,7 +2830,7 @@
   <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
